--- a/ig/terminology/CodeSystem-npu-observation-codes.xlsx
+++ b/ig/terminology/CodeSystem-npu-observation-codes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/CodeSystem-npu-observation-codes.xlsx
+++ b/ig/terminology/CodeSystem-npu-observation-codes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/CodeSystem-npu-observation-codes.xlsx
+++ b/ig/terminology/CodeSystem-npu-observation-codes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -46,7 +46,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-28</t>
+    <t>2025-11-18</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,7 +118,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>Code</t>
@@ -211,6 +211,9 @@
     <t>NPU02636</t>
   </si>
   <si>
+    <t>B—Lymfocytter; antalk. = ? × 10^9/L</t>
+  </si>
+  <si>
     <t>NPU02840</t>
   </si>
   <si>
@@ -371,6 +374,12 @@
   </si>
   <si>
     <t>Pt—Legeme; masse = ? kg</t>
+  </si>
+  <si>
+    <t>NPU03963</t>
+  </si>
+  <si>
+    <t>U—Erythrocytter; arb.k.(proc.) = ?</t>
   </si>
 </sst>
 </file>
@@ -736,7 +745,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -848,7 +857,7 @@
         <v>64</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -857,10 +866,10 @@
         <v>49</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -869,10 +878,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -881,10 +890,10 @@
         <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -893,10 +902,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -905,10 +914,10 @@
         <v>49</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -917,10 +926,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -929,10 +938,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -941,10 +950,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -953,10 +962,10 @@
         <v>49</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -965,10 +974,10 @@
         <v>49</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -977,10 +986,10 @@
         <v>49</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -989,10 +998,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -1001,10 +1010,10 @@
         <v>49</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -1013,10 +1022,10 @@
         <v>49</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -1025,10 +1034,10 @@
         <v>49</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -1037,10 +1046,10 @@
         <v>49</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -1049,10 +1058,10 @@
         <v>49</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -1061,10 +1070,10 @@
         <v>49</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -1073,10 +1082,10 @@
         <v>49</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -1085,10 +1094,10 @@
         <v>49</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -1097,10 +1106,10 @@
         <v>49</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1109,10 +1118,10 @@
         <v>49</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -1121,10 +1130,10 @@
         <v>49</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -1133,10 +1142,10 @@
         <v>49</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -1145,10 +1154,10 @@
         <v>49</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -1157,10 +1166,10 @@
         <v>49</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -1169,12 +1178,24 @@
         <v>49</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="D37" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
